--- a/respuestas_muestra.xlsx
+++ b/respuestas_muestra.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E48CEEE-7D1A-4005-A0DC-49B6502CEAA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="8625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="ICD2344-1-(1S2024) Control 3 (l" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Apellido(s)</t>
   </si>
@@ -124,42 +123,6 @@
     <t>esto ocurre porque estos al ser binarios cada vez que quieres avanzar en la estructura tienes que comparar si el valor a ingresar, eliminar o buscar es mayor o menor que el nodo de la izquerda o el de la derecha, esto HACE QUE PARA AVANZAR EN CADA ITERACION SE DESCARTE la mitad de los datos haciendo que tengan una altura logaritmica y por ende una complejidad logaritmica.</t>
   </si>
   <si>
-    <t>17 de junio de 2024  15:07</t>
-  </si>
-  <si>
-    <t>31 minutos 36 segundos</t>
-  </si>
-  <si>
-    <t>Usando un conjunto, ¿cómo eliminarías los elementos duplicados de una lista enlazada? Explica el algoritmo paso a paso. ¿Qué complejidad temporal tendría el algoritmo?</t>
-  </si>
-  <si>
-    <t>recorriendo la lista y almacenando en el conjunto, al leer un dato preguntar si esta en el conjunto, el caso de que este no se almacena y  en el caso contrario almacenarlo. debido a que se debe recorrer toda la lista para ver todos los datos la complejidad es O(n)</t>
-  </si>
-  <si>
-    <t>Usando una cola, ¿cómo implementarías un algoritmo para rotar un arreglo a la izquierda 'k' posiciones? Explica un algoritmo paso a paso. ¿Qué complejidad temporal tiene el algoritmo?</t>
-  </si>
-  <si>
-    <t>en el arreglo leer de la posición k hasta el final, introduciéndolos en la cola. luego se mueven los datos del principio hacia la derecha y luego ingresar los datos de la cola al arreglo nuevamente </t>
-  </si>
-  <si>
-    <t>se comienza en la raíz preguntando si es mayor o menor. dependiendo de eso se tendría que ir a la izquierda o la derecha. al llegar al lugar indicado se pregunta si supera la capacidad de almacenamiento, en el caso que si se toma la mediana de ese nodo, y se lleva la mediana al nodo padre. para finalizar se divide el nodo en dos  </t>
-  </si>
-  <si>
-    <t>34 minutos 17 segundos</t>
-  </si>
-  <si>
-    <t>primero agrego los datos a la cola en orden luego utilizo otra cola para ir cambiando de posicion los datos , si tengo que rotar a la izquierda , intercambio la posicion de los datos el primero con el ultimo y asi sucesivamente agreganadolos en la nueva cola . la complejidad temporal que tiene es de o(n) ya que tiene que realizarlo n veces .</t>
-  </si>
-  <si>
-    <t>¿Cómo se implementaría un conjunto (set) usando una tabla hash? Considera estas operaciones para el conjunto: agregar un dato, y preguntar si un dato existe.</t>
-  </si>
-  <si>
-    <t>la tabla hash se utiliza para agregar y para saber si existe un dato ya que contiene una tabla que retorna la posicion del dato , con la clave que le paso , por ende al imprementarla con un conjunto set , seria de la misma forma que con un mapa , recorriendo el conjunto set para saber si tiene espacio para agregar un dato  o preguntar si existe .</t>
-  </si>
-  <si>
-    <t>porque esta se va acortando a medida que avanzo ya que me divide los datos entre menor o mayor que la raiz , por orden es mas rapido y facil.</t>
-  </si>
-  <si>
     <t>Fernández</t>
   </si>
   <si>
@@ -172,18 +135,6 @@
     <t xml:space="preserve"> Rodrigo</t>
   </si>
   <si>
-    <t>López</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Valeria</t>
-  </si>
-  <si>
-    <t>Martínez</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Andrés</t>
-  </si>
-  <si>
     <t>rilianx@gmail.com</t>
   </si>
   <si>
@@ -193,28 +144,22 @@
     <t>Para implementar un sistema de reservaciones para una sala de cine utilizando un mapa, se debe usar un mapa donde las claves sean los identificadores de los asientos (por ejemplo, combinaciones de fila y número de asiento) y los valores indiquen si el asiento está reservado o disponible. Al realizar una reservación, se verifica el estado del asiento en el mapa. Si el asiento está disponible, se cambia su valor a reservado; si no, se informa al usuario que el asiento ya está reservado. Al cancelar una reservación, se actualiza el valor del asiento a disponible.</t>
   </si>
   <si>
-    <t>Para eliminar los elementos duplicados de una lista enlazada usando un conjunto, se recorre la lista y se inserta cada valor en el conjunto. Si un valor ya está presente en el conjunto, se elimina el nodo correspondiente de la lista. De lo contrario, se agrega el valor al conjunto y se continúa con el siguiente nodo. Este enfoque garantiza que cada valor único se mantiene en la lista, mientras que los duplicados se eliminan. Asuminedo que el conjunto se implementa con tabla hash, la complejidad temporal de este algoritmo es O(n), donde n es el número de elementos en la lista.</t>
-  </si>
-  <si>
-    <t>Para rotar un arreglo a la derecha 'k' posiciones utilizando una cola, se sigue este proceso: 1) Insertar todos los elementos del arreglo en una cola. 2) Extraer los primeros 'k' elementos de la cola y reinsertarlos al final. 3) Extraer todos los elementos de la cola para reconstruir el arreglo rotado. La complejidad temporal de este algoritmo es O(n), donde n es el número de elementos en el arreglo, ya que cada elemento es insertado y extraído de la cola una vez.</t>
-  </si>
-  <si>
     <t>Para eliminar el primer elemento ingresado en una pila, se puede usar una pila auxiliar. El algoritmo consiste en transferir todos los elementos de la pila original a la pila auxiliar, excepto el último elemento (el primero que se ingresó). Luego, se transfieren los elementos de la pila auxiliar de vuelta a la pila original. Este proceso garantiza que el primer elemento ingresado se elimina y la pila conserva el orden de los demás elementos. La complejidad temporal de este algoritmo es O(n), donde n es el número de elementos en la pila.</t>
   </si>
   <si>
-    <t>Para implementar un conjunto usando una tabla hash, se debe crear una estructura de datos que utilice una tabla hash para almacenar los elementos del conjunto. Al agregar un dato, se calcula su hash y se almacena en la tabla hash, asegurándose de que no se permiten duplicados. Para verificar si un dato existe en el conjunto, se calcula su hash y se busca en la tabla hash.</t>
-  </si>
-  <si>
     <t>Para insertar un elemento en un árbol B, se sigue este proceso: 1) Encuentra el nodo hoja adecuado donde debería insertarse la nueva clave. 2) Si el nodo hoja tiene menos que el número máximo de claves, inserta la clave en orden. 3) Si el nodo hoja está lleno, divídelo en dos nodos y eleva la clave mediana al nodo padre. 4) Si el nodo padre también se llena debido a la elevación, repite el proceso de división y elevación recursivamente hasta la raíz. Si la raíz se divide, se crea una nueva raíz y la altura del árbol aumenta en uno. Este proceso asegura que el árbol permanezca balanceado.</t>
   </si>
   <si>
     <t>Los árboles binarios autobalanceables como AVL y rojo-negro realizan rotaciones y ajustes durante las operaciones de inserción y eliminación para mantener el árbol balanceado. Estas rotaciones y rebalanceos garantizan que la altura del árbol se mantenga O(log n), lo que asegura que las operaciones de búsqueda, inserción y eliminación tengan una complejidad de tiempo logarítmica.</t>
+  </si>
+  <si>
+    <t>ignacio.araya@pucv.cl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -566,16 +511,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -633,13 +579,13 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -663,7 +609,7 @@
         <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L2" t="s">
         <v>23</v>
@@ -672,7 +618,7 @@
         <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -681,18 +627,18 @@
         <v>26</v>
       </c>
       <c r="Q2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -716,7 +662,7 @@
         <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="L3" t="s">
         <v>21</v>
@@ -725,7 +671,7 @@
         <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
@@ -734,121 +680,13 @@
         <v>33</v>
       </c>
       <c r="Q3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" t="s">
         <v>43</v>
-      </c>
-      <c r="M5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C2951739-8B8A-40E5-879F-7B6FBBF293BF}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{F8426F52-D726-4FFB-A6B0-738E1E442E94}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{0E22E64A-42E3-4209-998F-5247FAC6F46A}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{36DA9A7C-BC1F-44B7-A70B-C3033F609781}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
